--- a/data/verbs_short.xlsx
+++ b/data/verbs_short.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/MHPC/AppEnglish/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C34C26C-D093-CF42-8DD3-06F57B55F60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0503F66D-1012-1E48-9293-37A7F14AFCAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +145,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -179,16 +187,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -495,7 +506,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -548,7 +559,7 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -568,7 +579,7 @@
       <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -588,7 +599,7 @@
       <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -608,7 +619,7 @@
       <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -633,6 +644,12 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{893CFF9D-20F2-1249-9840-BFB9C8E7C95A}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{E027C37D-B8C9-CA4A-BB8B-54C2E4686EF6}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{22231667-35D3-7048-A52E-99882B917ACE}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{4AB82C32-8100-6542-9161-9F6E83D086A2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>